--- a/biology/Botanique/Chamaesyce_hirta/Chamaesyce_hirta.xlsx
+++ b/biology/Botanique/Chamaesyce_hirta/Chamaesyce_hirta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chamaesyce hirta est une plante de la famille des Euphorbiaceae et du genre Chamaesyce. Traditionnellement utilisée comme anti-asthmatique, propriété liée à une activité antipasmodique au niveau des bronches et à une activité anti-inflammatoire.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Euphorbia hirta L. (Nom à nouveau accepté par plusieurs auteurs, il pourrait être à nouveau le nom valide, à l'avenir.)</t>
         </is>
@@ -541,12 +555,14 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cuba : tapón[1]
-Martinique et Haïti : malomé, malomin, malnommée[1]
-autres noms créoles : zèb malonmé, herbe malnommée[1]
-Ce terme  "Malnommée" s'explique par décence vis-à-vis des colons. La traduction du terme amérindien serait "herbe poil de con" en raison de la forme et de la disposition des inflorescence qui évoquent un sexe féminin[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cuba : tapón
+Martinique et Haïti : malomé, malomin, malnommée
+autres noms créoles : zèb malonmé, herbe malnommée
+Ce terme  "Malnommée" s'explique par décence vis-à-vis des colons. La traduction du terme amérindien serait "herbe poil de con" en raison de la forme et de la disposition des inflorescence qui évoquent un sexe féminin.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Petite herbe à tiges dressées, annuelle, tomenteuse et avec d’abondants poils jaunâtres. Les feuilles sont opposées à courts pétioles, les limbes ovales à lancéolées, souvent rhombiques de 1-3 cm de long, à base arrondie, à apex aigu et bords dentelées. Les feuilles présentent souvent des taches rouges ou pourpres. Les inflorescences terminales et axillaires sont pédonculées, avec de petites glandes pourpres. Les fruits sont des capsules de 1 à 1,2 mm de long, pubescentes-strigueuses[1]. La floraison dure toute l'année[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Petite herbe à tiges dressées, annuelle, tomenteuse et avec d’abondants poils jaunâtres. Les feuilles sont opposées à courts pétioles, les limbes ovales à lancéolées, souvent rhombiques de 1-3 cm de long, à base arrondie, à apex aigu et bords dentelées. Les feuilles présentent souvent des taches rouges ou pourpres. Les inflorescences terminales et axillaires sont pédonculées, avec de petites glandes pourpres. Les fruits sont des capsules de 1 à 1,2 mm de long, pubescentes-strigueuses. La floraison dure toute l'année.
 </t>
         </is>
       </c>
@@ -606,9 +624,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est présente dans les jardins, les pelouses, les bords des routes[2] 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est présente dans les jardins, les pelouses, les bords des routes 
 </t>
         </is>
       </c>
@@ -637,9 +657,11 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plante comprend de très nombreuses substances actives [3]
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante comprend de très nombreuses substances actives 
 </t>
         </is>
       </c>
@@ -668,11 +690,13 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les parties aériennes sont utilisées en décoction ou en infusion pour les diarrhées, les affections respiratoires, l'insuffisance de lactation, la fièvre, la rétention d'urine[2]. Elle s'utilise en bain de bouche pour les gingivites. 
-Le latex est appliqué sur les verrues[2]. C'est pourquoi en Nouvelle-Calédonie, on lui donne le nom de « herbe à verrues ».[réf. nécessaire]
-On lui attribue aussi des capacités contre les morsures de serpents et de scorpions[2].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les parties aériennes sont utilisées en décoction ou en infusion pour les diarrhées, les affections respiratoires, l'insuffisance de lactation, la fièvre, la rétention d'urine. Elle s'utilise en bain de bouche pour les gingivites. 
+Le latex est appliqué sur les verrues. C'est pourquoi en Nouvelle-Calédonie, on lui donne le nom de « herbe à verrues ».[réf. nécessaire]
+On lui attribue aussi des capacités contre les morsures de serpents et de scorpions.
 </t>
         </is>
       </c>
